--- a/Code/Results/Cases/Case_1_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_149/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.049211080376141</v>
+        <v>1.081940714174692</v>
       </c>
       <c r="D2">
-        <v>1.072917932073762</v>
+        <v>1.083993805722326</v>
       </c>
       <c r="E2">
-        <v>1.058252267150939</v>
+        <v>1.084782500275467</v>
       </c>
       <c r="F2">
-        <v>1.072737098202534</v>
+        <v>1.095481992770079</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.076464248909841</v>
+        <v>1.065962289605374</v>
       </c>
       <c r="J2">
-        <v>1.070013313244818</v>
+        <v>1.086812809583376</v>
       </c>
       <c r="K2">
-        <v>1.083446949141639</v>
+        <v>1.086657978799703</v>
       </c>
       <c r="L2">
-        <v>1.068955598688808</v>
+        <v>1.087444627943882</v>
       </c>
       <c r="M2">
-        <v>1.083268228733596</v>
+        <v>1.09811668600872</v>
       </c>
       <c r="N2">
-        <v>1.071532854881868</v>
+        <v>1.088356208432156</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.056908956092661</v>
+        <v>1.083440155485552</v>
       </c>
       <c r="D3">
-        <v>1.07840829945669</v>
+        <v>1.085053021434649</v>
       </c>
       <c r="E3">
-        <v>1.06493494243455</v>
+        <v>1.086104269216301</v>
       </c>
       <c r="F3">
-        <v>1.079329270508277</v>
+        <v>1.096796010018168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.079687170164366</v>
+        <v>1.06648645698643</v>
       </c>
       <c r="J3">
-        <v>1.075959914701203</v>
+        <v>1.087971616283168</v>
       </c>
       <c r="K3">
-        <v>1.088127389164123</v>
+        <v>1.087535537176838</v>
       </c>
       <c r="L3">
-        <v>1.074799288230859</v>
+        <v>1.088584256449371</v>
       </c>
       <c r="M3">
-        <v>1.08903859328549</v>
+        <v>1.099250576518215</v>
       </c>
       <c r="N3">
-        <v>1.077487901194406</v>
+        <v>1.089516660770379</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.061739671294529</v>
+        <v>1.08440880018819</v>
       </c>
       <c r="D4">
-        <v>1.081858380596237</v>
+        <v>1.08573724763094</v>
       </c>
       <c r="E4">
-        <v>1.069130127719192</v>
+        <v>1.086957860037292</v>
       </c>
       <c r="F4">
-        <v>1.083471913079666</v>
+        <v>1.097645054008166</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.081698175971427</v>
+        <v>1.066823604512597</v>
       </c>
       <c r="J4">
-        <v>1.079685868152812</v>
+        <v>1.088719380565419</v>
       </c>
       <c r="K4">
-        <v>1.09105989605709</v>
+        <v>1.088101614103521</v>
       </c>
       <c r="L4">
-        <v>1.07846010354784</v>
+        <v>1.089319438926541</v>
       </c>
       <c r="M4">
-        <v>1.092657405772949</v>
+        <v>1.099982509287112</v>
       </c>
       <c r="N4">
-        <v>1.08121914592729</v>
+        <v>1.09026548696368</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.063736535717087</v>
+        <v>1.084815644439123</v>
       </c>
       <c r="D5">
-        <v>1.08328552287845</v>
+        <v>1.086024623287005</v>
       </c>
       <c r="E5">
-        <v>1.07086457871759</v>
+        <v>1.087316313257954</v>
       </c>
       <c r="F5">
-        <v>1.085185637454122</v>
+        <v>1.098001707319338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.082526642745082</v>
+        <v>1.066964859658364</v>
       </c>
       <c r="J5">
-        <v>1.081224622949343</v>
+        <v>1.089033253142698</v>
       </c>
       <c r="K5">
-        <v>1.092270893756092</v>
+        <v>1.088339174917411</v>
       </c>
       <c r="L5">
-        <v>1.079971787210201</v>
+        <v>1.089627980871924</v>
       </c>
       <c r="M5">
-        <v>1.094152667898477</v>
+        <v>1.100289795302612</v>
       </c>
       <c r="N5">
-        <v>1.082760085932128</v>
+        <v>1.090579805276021</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.064069881709631</v>
+        <v>1.084883933670041</v>
       </c>
       <c r="D6">
-        <v>1.083523816951306</v>
+        <v>1.086072859028846</v>
       </c>
       <c r="E6">
-        <v>1.071154133990462</v>
+        <v>1.087376476071531</v>
       </c>
       <c r="F6">
-        <v>1.08547179037218</v>
+        <v>1.098061574442612</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.082664775126577</v>
+        <v>1.066988548855258</v>
       </c>
       <c r="J6">
-        <v>1.081481408626546</v>
+        <v>1.089085925311964</v>
       </c>
       <c r="K6">
-        <v>1.092472977721714</v>
+        <v>1.08837903802903</v>
       </c>
       <c r="L6">
-        <v>1.080224044926793</v>
+        <v>1.08967975558602</v>
       </c>
       <c r="M6">
-        <v>1.094402239044728</v>
+        <v>1.100341365587121</v>
       </c>
       <c r="N6">
-        <v>1.083017236274448</v>
+        <v>1.090632552245809</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.061766484421759</v>
+        <v>1.084414237920996</v>
       </c>
       <c r="D7">
-        <v>1.08187753996838</v>
+        <v>1.085741088626424</v>
       </c>
       <c r="E7">
-        <v>1.069153416191674</v>
+        <v>1.086962651256344</v>
       </c>
       <c r="F7">
-        <v>1.083494919347446</v>
+        <v>1.097649820739198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.081709311540513</v>
+        <v>1.06682549385992</v>
       </c>
       <c r="J7">
-        <v>1.079706535711353</v>
+        <v>1.088723576454483</v>
       </c>
       <c r="K7">
-        <v>1.091076161765737</v>
+        <v>1.088104790040079</v>
       </c>
       <c r="L7">
-        <v>1.078480408194381</v>
+        <v>1.089323563749494</v>
       </c>
       <c r="M7">
-        <v>1.092677486219402</v>
+        <v>1.099986616895862</v>
       </c>
       <c r="N7">
-        <v>1.081239842836134</v>
+        <v>1.090269688811388</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.051845011099247</v>
+        <v>1.082447792066821</v>
       </c>
       <c r="D8">
-        <v>1.07479546652758</v>
+        <v>1.084352014651881</v>
       </c>
       <c r="E8">
-        <v>1.060538457504322</v>
+        <v>1.085229550380749</v>
       </c>
       <c r="F8">
-        <v>1.074991406761225</v>
+        <v>1.095926325611112</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.077569405199817</v>
+        <v>1.066139855181034</v>
       </c>
       <c r="J8">
-        <v>1.072049207196958</v>
+        <v>1.087204864074935</v>
       </c>
       <c r="K8">
-        <v>1.085049347497238</v>
+        <v>1.086954920959266</v>
       </c>
       <c r="L8">
-        <v>1.070956390142763</v>
+        <v>1.087830236730908</v>
       </c>
       <c r="M8">
-        <v>1.085243070465834</v>
+        <v>1.098500259331434</v>
       </c>
       <c r="N8">
-        <v>1.07357164003694</v>
+        <v>1.088748819686062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.033109990424241</v>
+        <v>1.078970110877433</v>
       </c>
       <c r="D9">
-        <v>1.061466864233345</v>
+        <v>1.081895245873316</v>
       </c>
       <c r="E9">
-        <v>1.044287175976866</v>
+        <v>1.08216243804949</v>
       </c>
       <c r="F9">
-        <v>1.058986564180736</v>
+        <v>1.092879763739399</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.069661352732271</v>
+        <v>1.064916044693965</v>
       </c>
       <c r="J9">
-        <v>1.057545386332708</v>
+        <v>1.08451264707415</v>
       </c>
       <c r="K9">
-        <v>1.073635624568115</v>
+        <v>1.08491503381627</v>
       </c>
       <c r="L9">
-        <v>1.056700383651259</v>
+        <v>1.085181433340128</v>
       </c>
       <c r="M9">
-        <v>1.071189997646051</v>
+        <v>1.095867312548408</v>
       </c>
       <c r="N9">
-        <v>1.059047222083451</v>
+        <v>1.086052779428335</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.019618812119679</v>
+        <v>1.076642735038212</v>
       </c>
       <c r="D10">
-        <v>1.05191009618029</v>
+        <v>1.080251065500051</v>
       </c>
       <c r="E10">
-        <v>1.032602320725537</v>
+        <v>1.080108443736594</v>
       </c>
       <c r="F10">
-        <v>1.047505986001908</v>
+        <v>1.090841950224358</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.063909551799688</v>
+        <v>1.064089484289999</v>
       </c>
       <c r="J10">
-        <v>1.047075098751991</v>
+        <v>1.082706669719427</v>
       </c>
       <c r="K10">
-        <v>1.065401349363925</v>
+        <v>1.083545669417436</v>
       </c>
       <c r="L10">
-        <v>1.046406865510787</v>
+        <v>1.083403512514609</v>
       </c>
       <c r="M10">
-        <v>1.061067397285548</v>
+        <v>1.094102406065205</v>
       </c>
       <c r="N10">
-        <v>1.048562065493411</v>
+        <v>1.084244237378619</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.013497489681144</v>
+        <v>1.075632731633793</v>
       </c>
       <c r="D11">
-        <v>1.047586479527079</v>
+        <v>1.079537557366446</v>
       </c>
       <c r="E11">
-        <v>1.027306483844266</v>
+        <v>1.079216757286759</v>
       </c>
       <c r="F11">
-        <v>1.042309781206521</v>
+        <v>1.089957868272329</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.061287390800061</v>
+        <v>1.063728999339432</v>
       </c>
       <c r="J11">
-        <v>1.042319341357146</v>
+        <v>1.081921929402595</v>
       </c>
       <c r="K11">
-        <v>1.061663518005002</v>
+        <v>1.082950424708443</v>
       </c>
       <c r="L11">
-        <v>1.041731180493282</v>
+        <v>1.082630711043497</v>
       </c>
       <c r="M11">
-        <v>1.056475597243175</v>
+        <v>1.093335828115106</v>
       </c>
       <c r="N11">
-        <v>1.043799554377572</v>
+        <v>1.083458382640526</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.011177585434873</v>
+        <v>1.075257226347873</v>
       </c>
       <c r="D12">
-        <v>1.045950035172401</v>
+        <v>1.079272288186446</v>
       </c>
       <c r="E12">
-        <v>1.025300480213048</v>
+        <v>1.078885192879964</v>
       </c>
       <c r="F12">
-        <v>1.040342634985883</v>
+        <v>1.089629219205375</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.06029187408278</v>
+        <v>1.063594708186667</v>
       </c>
       <c r="J12">
-        <v>1.040516309221434</v>
+        <v>1.081630022922065</v>
       </c>
       <c r="K12">
-        <v>1.060246853160039</v>
+        <v>1.082728973740129</v>
       </c>
       <c r="L12">
-        <v>1.039958501555021</v>
+        <v>1.082343207673774</v>
       </c>
       <c r="M12">
-        <v>1.054735703415451</v>
+        <v>1.093050725555971</v>
       </c>
       <c r="N12">
-        <v>1.041993961729418</v>
+        <v>1.083166061619312</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.011677375492381</v>
+        <v>1.075337789271886</v>
       </c>
       <c r="D13">
-        <v>1.046302481926437</v>
+        <v>1.079329200290103</v>
       </c>
       <c r="E13">
-        <v>1.025732594565796</v>
+        <v>1.078956330641597</v>
       </c>
       <c r="F13">
-        <v>1.040766327585757</v>
+        <v>1.089699727499372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060506420894802</v>
+        <v>1.063623531845282</v>
       </c>
       <c r="J13">
-        <v>1.040904774540956</v>
+        <v>1.081692656930875</v>
       </c>
       <c r="K13">
-        <v>1.060552053419727</v>
+        <v>1.082776491668129</v>
       </c>
       <c r="L13">
-        <v>1.040340426938667</v>
+        <v>1.082404898625928</v>
       </c>
       <c r="M13">
-        <v>1.055110520161623</v>
+        <v>1.093111897481369</v>
       </c>
       <c r="N13">
-        <v>1.042382978714251</v>
+        <v>1.083228784575599</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.013306693762111</v>
+        <v>1.075601699343112</v>
       </c>
       <c r="D14">
-        <v>1.047451848158554</v>
+        <v>1.079515635068507</v>
       </c>
       <c r="E14">
-        <v>1.027141481718019</v>
+        <v>1.079189357302795</v>
       </c>
       <c r="F14">
-        <v>1.04214795224079</v>
+        <v>1.089930707416378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.061205551288467</v>
+        <v>1.063717906787593</v>
       </c>
       <c r="J14">
-        <v>1.042171067278707</v>
+        <v>1.081897808911478</v>
       </c>
       <c r="K14">
-        <v>1.061547007583766</v>
+        <v>1.082932126682523</v>
       </c>
       <c r="L14">
-        <v>1.041585402448863</v>
+        <v>1.082606955157558</v>
       </c>
       <c r="M14">
-        <v>1.056332495147367</v>
+        <v>1.093312268858633</v>
       </c>
       <c r="N14">
-        <v>1.043651069732935</v>
+        <v>1.083434227895546</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.014304317628078</v>
+        <v>1.075764257043974</v>
       </c>
       <c r="D15">
-        <v>1.048155890784456</v>
+        <v>1.079630471669822</v>
       </c>
       <c r="E15">
-        <v>1.028004280089218</v>
+        <v>1.079332885794385</v>
       </c>
       <c r="F15">
-        <v>1.042994203895421</v>
+        <v>1.090072986883674</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.061633399106244</v>
+        <v>1.063776002387474</v>
       </c>
       <c r="J15">
-        <v>1.042946328995601</v>
+        <v>1.08202415407848</v>
       </c>
       <c r="K15">
-        <v>1.062156209415463</v>
+        <v>1.083027971949014</v>
       </c>
       <c r="L15">
-        <v>1.042347613475447</v>
+        <v>1.082731388941621</v>
       </c>
       <c r="M15">
-        <v>1.057080754936706</v>
+        <v>1.093435676194733</v>
       </c>
       <c r="N15">
-        <v>1.044427432410391</v>
+        <v>1.083560752487176</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.020018830853949</v>
+        <v>1.076709717765156</v>
       </c>
       <c r="D16">
-        <v>1.052192918835456</v>
+        <v>1.080298385237195</v>
       </c>
       <c r="E16">
-        <v>1.032948530730427</v>
+        <v>1.08016757304621</v>
       </c>
       <c r="F16">
-        <v>1.04784583324255</v>
+        <v>1.090900587520855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.064080658598331</v>
+        <v>1.064113353853365</v>
       </c>
       <c r="J16">
-        <v>1.047385783199449</v>
+        <v>1.082758691994848</v>
       </c>
       <c r="K16">
-        <v>1.065645590257012</v>
+        <v>1.083585124954203</v>
       </c>
       <c r="L16">
-        <v>1.046712316766265</v>
+        <v>1.083454738028767</v>
       </c>
       <c r="M16">
-        <v>1.061367501176453</v>
+        <v>1.094153231001411</v>
       </c>
       <c r="N16">
-        <v>1.048873191148421</v>
+        <v>1.084296333531639</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.023525776671357</v>
+        <v>1.077302175514243</v>
       </c>
       <c r="D17">
-        <v>1.054673855441914</v>
+        <v>1.080716926649085</v>
       </c>
       <c r="E17">
-        <v>1.035984421032845</v>
+        <v>1.08069053081716</v>
       </c>
       <c r="F17">
-        <v>1.050826730104699</v>
+        <v>1.091419260761987</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.065579358136129</v>
+        <v>1.064324272588703</v>
       </c>
       <c r="J17">
-        <v>1.050108976486574</v>
+        <v>1.083218709455203</v>
       </c>
       <c r="K17">
-        <v>1.067786665886014</v>
+        <v>1.083933992856363</v>
       </c>
       <c r="L17">
-        <v>1.049389618732396</v>
+        <v>1.083907680868035</v>
       </c>
       <c r="M17">
-        <v>1.06399864146764</v>
+        <v>1.094602697250344</v>
       </c>
       <c r="N17">
-        <v>1.051600251682369</v>
+        <v>1.084757004269552</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.02554465606816</v>
+        <v>1.077647531154464</v>
       </c>
       <c r="D18">
-        <v>1.056103240666972</v>
+        <v>1.080960903906524</v>
       </c>
       <c r="E18">
-        <v>1.037732665526716</v>
+        <v>1.080995342492248</v>
       </c>
       <c r="F18">
-        <v>1.052543963724421</v>
+        <v>1.091721630995571</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.066440957846454</v>
+        <v>1.064447049339369</v>
       </c>
       <c r="J18">
-        <v>1.051676179453106</v>
+        <v>1.083486765963488</v>
       </c>
       <c r="K18">
-        <v>1.069019067363662</v>
+        <v>1.084137259932513</v>
       </c>
       <c r="L18">
-        <v>1.05093038860146</v>
+        <v>1.084171590624206</v>
       </c>
       <c r="M18">
-        <v>1.065513428298228</v>
+        <v>1.094864635875104</v>
       </c>
       <c r="N18">
-        <v>1.053169680256874</v>
+        <v>1.085025441448825</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.026228636985443</v>
+        <v>1.077765252327466</v>
       </c>
       <c r="D19">
-        <v>1.056587694700487</v>
+        <v>1.081044068408191</v>
       </c>
       <c r="E19">
-        <v>1.038325044887206</v>
+        <v>1.081099238189249</v>
       </c>
       <c r="F19">
-        <v>1.053125945195152</v>
+        <v>1.091824703977772</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.066732659293306</v>
+        <v>1.064488870981978</v>
       </c>
       <c r="J19">
-        <v>1.052207050556624</v>
+        <v>1.083578121764528</v>
       </c>
       <c r="K19">
-        <v>1.069436561066842</v>
+        <v>1.084206531301025</v>
       </c>
       <c r="L19">
-        <v>1.051452301206831</v>
+        <v>1.084261529055565</v>
       </c>
       <c r="M19">
-        <v>1.066026637178521</v>
+        <v>1.094953911797241</v>
       </c>
       <c r="N19">
-        <v>1.05370130525825</v>
+        <v>1.085116926985581</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.023152300785357</v>
+        <v>1.077238632705026</v>
       </c>
       <c r="D20">
-        <v>1.054409523212081</v>
+        <v>1.080672036758069</v>
       </c>
       <c r="E20">
-        <v>1.035661053210697</v>
+        <v>1.080634445286841</v>
       </c>
       <c r="F20">
-        <v>1.050509151159396</v>
+        <v>1.091363628951911</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.065419873627507</v>
+        <v>1.064301668741972</v>
       </c>
       <c r="J20">
-        <v>1.04981901692515</v>
+        <v>1.083169381283935</v>
       </c>
       <c r="K20">
-        <v>1.067558666585474</v>
+        <v>1.083896585595885</v>
       </c>
       <c r="L20">
-        <v>1.049104547732714</v>
+        <v>1.083859113830625</v>
       </c>
       <c r="M20">
-        <v>1.063718424747404</v>
+        <v>1.094554497347541</v>
       </c>
       <c r="N20">
-        <v>1.051309880345108</v>
+        <v>1.084707606046622</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012828211133902</v>
+        <v>1.075523994005629</v>
       </c>
       <c r="D21">
-        <v>1.047114251898542</v>
+        <v>1.079460741352427</v>
       </c>
       <c r="E21">
-        <v>1.026727702893357</v>
+        <v>1.079120746548866</v>
       </c>
       <c r="F21">
-        <v>1.041742148990985</v>
+        <v>1.089862696867391</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.061000284447938</v>
+        <v>1.063690126541244</v>
       </c>
       <c r="J21">
-        <v>1.041799211728953</v>
+        <v>1.081837408391455</v>
       </c>
       <c r="K21">
-        <v>1.061254819402002</v>
+        <v>1.082886305767149</v>
       </c>
       <c r="L21">
-        <v>1.041219806720267</v>
+        <v>1.082547467039757</v>
       </c>
       <c r="M21">
-        <v>1.055973626351021</v>
+        <v>1.093253274510721</v>
       </c>
       <c r="N21">
-        <v>1.043278686105648</v>
+        <v>1.083373741599856</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00606739607013</v>
+        <v>1.074443931550244</v>
       </c>
       <c r="D22">
-        <v>1.04234963739475</v>
+        <v>1.078697757924298</v>
       </c>
       <c r="E22">
-        <v>1.020883881217348</v>
+        <v>1.07816698153633</v>
       </c>
       <c r="F22">
-        <v>1.036013721971035</v>
+        <v>1.088917483879819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058095897227951</v>
+        <v>1.063303361752596</v>
       </c>
       <c r="J22">
-        <v>1.036543575703476</v>
+        <v>1.080997516386045</v>
       </c>
       <c r="K22">
-        <v>1.05712636866271</v>
+        <v>1.082249071936874</v>
       </c>
       <c r="L22">
-        <v>1.036052674472063</v>
+        <v>1.081720172573562</v>
       </c>
       <c r="M22">
-        <v>1.050903978594125</v>
+        <v>1.092433049976217</v>
       </c>
       <c r="N22">
-        <v>1.038015586474185</v>
+        <v>1.082532656851462</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00967854208314</v>
+        <v>1.075016685915817</v>
       </c>
       <c r="D23">
-        <v>1.044893263011869</v>
+        <v>1.079102363697396</v>
       </c>
       <c r="E23">
-        <v>1.024004587773824</v>
+        <v>1.078672786644742</v>
       </c>
       <c r="F23">
-        <v>1.039072167780214</v>
+        <v>1.089418705343736</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059648126811873</v>
+        <v>1.063508608871821</v>
       </c>
       <c r="J23">
-        <v>1.039351079460333</v>
+        <v>1.081442991606461</v>
       </c>
       <c r="K23">
-        <v>1.059331456469889</v>
+        <v>1.082587075789171</v>
       </c>
       <c r="L23">
-        <v>1.038812890597146</v>
+        <v>1.082158986873586</v>
       </c>
       <c r="M23">
-        <v>1.053611562855085</v>
+        <v>1.092868067214033</v>
       </c>
       <c r="N23">
-        <v>1.040827077208402</v>
+        <v>1.082978764697787</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.023321140549092</v>
+        <v>1.077267345629715</v>
       </c>
       <c r="D24">
-        <v>1.054529018084627</v>
+        <v>1.080692321034001</v>
       </c>
       <c r="E24">
-        <v>1.035807238610338</v>
+        <v>1.080659788606145</v>
       </c>
       <c r="F24">
-        <v>1.050652717533611</v>
+        <v>1.091388767076463</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.065491976515514</v>
+        <v>1.064311883215551</v>
       </c>
       <c r="J24">
-        <v>1.049950102417145</v>
+        <v>1.083191671376838</v>
       </c>
       <c r="K24">
-        <v>1.067661740320025</v>
+        <v>1.083913489011869</v>
       </c>
       <c r="L24">
-        <v>1.049233423266205</v>
+        <v>1.083881060062455</v>
       </c>
       <c r="M24">
-        <v>1.063845103939675</v>
+        <v>1.094576277511863</v>
       </c>
       <c r="N24">
-        <v>1.051441151993537</v>
+        <v>1.084729927794014</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.038117084698411</v>
+        <v>1.079870711787707</v>
       </c>
       <c r="D25">
-        <v>1.065022864351199</v>
+        <v>1.082531477198644</v>
       </c>
       <c r="E25">
-        <v>1.048627946517601</v>
+        <v>1.082956961481275</v>
       </c>
       <c r="F25">
-        <v>1.063257089734317</v>
+        <v>1.093668540412909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.071784904210079</v>
+        <v>1.065234299395527</v>
       </c>
       <c r="J25">
-        <v>1.06142639313058</v>
+        <v>1.085210590228878</v>
       </c>
       <c r="K25">
-        <v>1.076689182300374</v>
+        <v>1.085444039028834</v>
       </c>
       <c r="L25">
-        <v>1.060515522896918</v>
+        <v>1.085868309234677</v>
       </c>
       <c r="M25">
-        <v>1.0749468261953</v>
+        <v>1.096549661371605</v>
       </c>
       <c r="N25">
-        <v>1.062933740356134</v>
+        <v>1.086751713742398</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_149/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.081940714174692</v>
+        <v>1.049211080376143</v>
       </c>
       <c r="D2">
-        <v>1.083993805722326</v>
+        <v>1.072917932073765</v>
       </c>
       <c r="E2">
-        <v>1.084782500275467</v>
+        <v>1.058252267150941</v>
       </c>
       <c r="F2">
-        <v>1.095481992770079</v>
+        <v>1.072737098202536</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065962289605374</v>
+        <v>1.076464248909843</v>
       </c>
       <c r="J2">
-        <v>1.086812809583376</v>
+        <v>1.07001331324482</v>
       </c>
       <c r="K2">
-        <v>1.086657978799703</v>
+        <v>1.083446949141641</v>
       </c>
       <c r="L2">
-        <v>1.087444627943882</v>
+        <v>1.06895559868881</v>
       </c>
       <c r="M2">
-        <v>1.09811668600872</v>
+        <v>1.083268228733598</v>
       </c>
       <c r="N2">
-        <v>1.088356208432156</v>
+        <v>1.07153285488187</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.083440155485552</v>
+        <v>1.056908956092661</v>
       </c>
       <c r="D3">
-        <v>1.085053021434649</v>
+        <v>1.078408299456691</v>
       </c>
       <c r="E3">
-        <v>1.086104269216301</v>
+        <v>1.06493494243455</v>
       </c>
       <c r="F3">
-        <v>1.096796010018168</v>
+        <v>1.079329270508278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06648645698643</v>
+        <v>1.079687170164366</v>
       </c>
       <c r="J3">
-        <v>1.087971616283168</v>
+        <v>1.075959914701204</v>
       </c>
       <c r="K3">
-        <v>1.087535537176838</v>
+        <v>1.088127389164123</v>
       </c>
       <c r="L3">
-        <v>1.088584256449371</v>
+        <v>1.07479928823086</v>
       </c>
       <c r="M3">
-        <v>1.099250576518215</v>
+        <v>1.08903859328549</v>
       </c>
       <c r="N3">
-        <v>1.089516660770379</v>
+        <v>1.077487901194407</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.08440880018819</v>
+        <v>1.061739671294527</v>
       </c>
       <c r="D4">
-        <v>1.08573724763094</v>
+        <v>1.081858380596235</v>
       </c>
       <c r="E4">
-        <v>1.086957860037292</v>
+        <v>1.069130127719191</v>
       </c>
       <c r="F4">
-        <v>1.097645054008166</v>
+        <v>1.083471913079665</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066823604512597</v>
+        <v>1.081698175971426</v>
       </c>
       <c r="J4">
-        <v>1.088719380565419</v>
+        <v>1.079685868152811</v>
       </c>
       <c r="K4">
-        <v>1.088101614103521</v>
+        <v>1.091059896057089</v>
       </c>
       <c r="L4">
-        <v>1.089319438926541</v>
+        <v>1.078460103547839</v>
       </c>
       <c r="M4">
-        <v>1.099982509287112</v>
+        <v>1.092657405772947</v>
       </c>
       <c r="N4">
-        <v>1.09026548696368</v>
+        <v>1.081219145927288</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.084815644439123</v>
+        <v>1.063736535717086</v>
       </c>
       <c r="D5">
-        <v>1.086024623287005</v>
+        <v>1.08328552287845</v>
       </c>
       <c r="E5">
-        <v>1.087316313257954</v>
+        <v>1.070864578717589</v>
       </c>
       <c r="F5">
-        <v>1.098001707319338</v>
+        <v>1.085185637454122</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066964859658364</v>
+        <v>1.082526642745083</v>
       </c>
       <c r="J5">
-        <v>1.089033253142698</v>
+        <v>1.081224622949342</v>
       </c>
       <c r="K5">
-        <v>1.088339174917411</v>
+        <v>1.092270893756092</v>
       </c>
       <c r="L5">
-        <v>1.089627980871924</v>
+        <v>1.079971787210201</v>
       </c>
       <c r="M5">
-        <v>1.100289795302612</v>
+        <v>1.094152667898477</v>
       </c>
       <c r="N5">
-        <v>1.090579805276021</v>
+        <v>1.082760085932128</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.084883933670041</v>
+        <v>1.064069881709631</v>
       </c>
       <c r="D6">
-        <v>1.086072859028846</v>
+        <v>1.083523816951307</v>
       </c>
       <c r="E6">
-        <v>1.087376476071531</v>
+        <v>1.071154133990462</v>
       </c>
       <c r="F6">
-        <v>1.098061574442612</v>
+        <v>1.08547179037218</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066988548855258</v>
+        <v>1.082664775126577</v>
       </c>
       <c r="J6">
-        <v>1.089085925311964</v>
+        <v>1.081481408626546</v>
       </c>
       <c r="K6">
-        <v>1.08837903802903</v>
+        <v>1.092472977721714</v>
       </c>
       <c r="L6">
-        <v>1.08967975558602</v>
+        <v>1.080224044926793</v>
       </c>
       <c r="M6">
-        <v>1.100341365587121</v>
+        <v>1.094402239044729</v>
       </c>
       <c r="N6">
-        <v>1.090632552245809</v>
+        <v>1.083017236274448</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.084414237920996</v>
+        <v>1.061766484421758</v>
       </c>
       <c r="D7">
-        <v>1.085741088626424</v>
+        <v>1.081877539968379</v>
       </c>
       <c r="E7">
-        <v>1.086962651256344</v>
+        <v>1.069153416191673</v>
       </c>
       <c r="F7">
-        <v>1.097649820739198</v>
+        <v>1.083494919347445</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06682549385992</v>
+        <v>1.081709311540513</v>
       </c>
       <c r="J7">
-        <v>1.088723576454483</v>
+        <v>1.079706535711352</v>
       </c>
       <c r="K7">
-        <v>1.088104790040079</v>
+        <v>1.091076161765736</v>
       </c>
       <c r="L7">
-        <v>1.089323563749494</v>
+        <v>1.07848040819438</v>
       </c>
       <c r="M7">
-        <v>1.099986616895862</v>
+        <v>1.092677486219402</v>
       </c>
       <c r="N7">
-        <v>1.090269688811388</v>
+        <v>1.081239842836133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.082447792066821</v>
+        <v>1.051845011099247</v>
       </c>
       <c r="D8">
-        <v>1.084352014651881</v>
+        <v>1.07479546652758</v>
       </c>
       <c r="E8">
-        <v>1.085229550380749</v>
+        <v>1.060538457504322</v>
       </c>
       <c r="F8">
-        <v>1.095926325611112</v>
+        <v>1.074991406761224</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066139855181034</v>
+        <v>1.077569405199818</v>
       </c>
       <c r="J8">
-        <v>1.087204864074935</v>
+        <v>1.072049207196958</v>
       </c>
       <c r="K8">
-        <v>1.086954920959266</v>
+        <v>1.085049347497237</v>
       </c>
       <c r="L8">
-        <v>1.087830236730908</v>
+        <v>1.070956390142763</v>
       </c>
       <c r="M8">
-        <v>1.098500259331434</v>
+        <v>1.085243070465834</v>
       </c>
       <c r="N8">
-        <v>1.088748819686062</v>
+        <v>1.07357164003694</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078970110877433</v>
+        <v>1.033109990424241</v>
       </c>
       <c r="D9">
-        <v>1.081895245873316</v>
+        <v>1.061466864233345</v>
       </c>
       <c r="E9">
-        <v>1.08216243804949</v>
+        <v>1.044287175976866</v>
       </c>
       <c r="F9">
-        <v>1.092879763739399</v>
+        <v>1.058986564180737</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.064916044693965</v>
+        <v>1.069661352732271</v>
       </c>
       <c r="J9">
-        <v>1.08451264707415</v>
+        <v>1.057545386332708</v>
       </c>
       <c r="K9">
-        <v>1.08491503381627</v>
+        <v>1.073635624568115</v>
       </c>
       <c r="L9">
-        <v>1.085181433340128</v>
+        <v>1.05670038365126</v>
       </c>
       <c r="M9">
-        <v>1.095867312548408</v>
+        <v>1.071189997646052</v>
       </c>
       <c r="N9">
-        <v>1.086052779428335</v>
+        <v>1.059047222083451</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.076642735038212</v>
+        <v>1.019618812119677</v>
       </c>
       <c r="D10">
-        <v>1.080251065500051</v>
+        <v>1.051910096180288</v>
       </c>
       <c r="E10">
-        <v>1.080108443736594</v>
+        <v>1.032602320725535</v>
       </c>
       <c r="F10">
-        <v>1.090841950224358</v>
+        <v>1.047505986001905</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064089484289999</v>
+        <v>1.063909551799687</v>
       </c>
       <c r="J10">
-        <v>1.082706669719427</v>
+        <v>1.047075098751989</v>
       </c>
       <c r="K10">
-        <v>1.083545669417436</v>
+        <v>1.065401349363923</v>
       </c>
       <c r="L10">
-        <v>1.083403512514609</v>
+        <v>1.046406865510786</v>
       </c>
       <c r="M10">
-        <v>1.094102406065205</v>
+        <v>1.061067397285546</v>
       </c>
       <c r="N10">
-        <v>1.084244237378619</v>
+        <v>1.048562065493409</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.075632731633793</v>
+        <v>1.013497489681143</v>
       </c>
       <c r="D11">
-        <v>1.079537557366446</v>
+        <v>1.047586479527078</v>
       </c>
       <c r="E11">
-        <v>1.079216757286759</v>
+        <v>1.027306483844265</v>
       </c>
       <c r="F11">
-        <v>1.089957868272329</v>
+        <v>1.04230978120652</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.063728999339432</v>
+        <v>1.06128739080006</v>
       </c>
       <c r="J11">
-        <v>1.081921929402595</v>
+        <v>1.042319341357145</v>
       </c>
       <c r="K11">
-        <v>1.082950424708443</v>
+        <v>1.061663518005001</v>
       </c>
       <c r="L11">
-        <v>1.082630711043497</v>
+        <v>1.041731180493281</v>
       </c>
       <c r="M11">
-        <v>1.093335828115106</v>
+        <v>1.056475597243175</v>
       </c>
       <c r="N11">
-        <v>1.083458382640526</v>
+        <v>1.043799554377571</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.075257226347873</v>
+        <v>1.011177585434873</v>
       </c>
       <c r="D12">
-        <v>1.079272288186446</v>
+        <v>1.045950035172401</v>
       </c>
       <c r="E12">
-        <v>1.078885192879964</v>
+        <v>1.025300480213048</v>
       </c>
       <c r="F12">
-        <v>1.089629219205375</v>
+        <v>1.040342634985884</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.063594708186667</v>
+        <v>1.06029187408278</v>
       </c>
       <c r="J12">
-        <v>1.081630022922065</v>
+        <v>1.040516309221435</v>
       </c>
       <c r="K12">
-        <v>1.082728973740129</v>
+        <v>1.06024685316004</v>
       </c>
       <c r="L12">
-        <v>1.082343207673774</v>
+        <v>1.039958501555022</v>
       </c>
       <c r="M12">
-        <v>1.093050725555971</v>
+        <v>1.054735703415451</v>
       </c>
       <c r="N12">
-        <v>1.083166061619312</v>
+        <v>1.041993961729418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.075337789271886</v>
+        <v>1.01167737549238</v>
       </c>
       <c r="D13">
-        <v>1.079329200290103</v>
+        <v>1.046302481926435</v>
       </c>
       <c r="E13">
-        <v>1.078956330641597</v>
+        <v>1.025732594565794</v>
       </c>
       <c r="F13">
-        <v>1.089699727499372</v>
+        <v>1.040766327585756</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.063623531845282</v>
+        <v>1.060506420894801</v>
       </c>
       <c r="J13">
-        <v>1.081692656930875</v>
+        <v>1.040904774540955</v>
       </c>
       <c r="K13">
-        <v>1.082776491668129</v>
+        <v>1.060552053419727</v>
       </c>
       <c r="L13">
-        <v>1.082404898625928</v>
+        <v>1.040340426938666</v>
       </c>
       <c r="M13">
-        <v>1.093111897481369</v>
+        <v>1.055110520161622</v>
       </c>
       <c r="N13">
-        <v>1.083228784575599</v>
+        <v>1.04238297871425</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.075601699343112</v>
+        <v>1.01330669376211</v>
       </c>
       <c r="D14">
-        <v>1.079515635068507</v>
+        <v>1.047451848158553</v>
       </c>
       <c r="E14">
-        <v>1.079189357302795</v>
+        <v>1.027141481718019</v>
       </c>
       <c r="F14">
-        <v>1.089930707416378</v>
+        <v>1.04214795224079</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.063717906787593</v>
+        <v>1.061205551288467</v>
       </c>
       <c r="J14">
-        <v>1.081897808911478</v>
+        <v>1.042171067278706</v>
       </c>
       <c r="K14">
-        <v>1.082932126682523</v>
+        <v>1.061547007583766</v>
       </c>
       <c r="L14">
-        <v>1.082606955157558</v>
+        <v>1.041585402448862</v>
       </c>
       <c r="M14">
-        <v>1.093312268858633</v>
+        <v>1.056332495147366</v>
       </c>
       <c r="N14">
-        <v>1.083434227895546</v>
+        <v>1.043651069732934</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.075764257043974</v>
+        <v>1.014304317628078</v>
       </c>
       <c r="D15">
-        <v>1.079630471669822</v>
+        <v>1.048155890784456</v>
       </c>
       <c r="E15">
-        <v>1.079332885794385</v>
+        <v>1.028004280089217</v>
       </c>
       <c r="F15">
-        <v>1.090072986883674</v>
+        <v>1.042994203895421</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.063776002387474</v>
+        <v>1.061633399106243</v>
       </c>
       <c r="J15">
-        <v>1.08202415407848</v>
+        <v>1.042946328995601</v>
       </c>
       <c r="K15">
-        <v>1.083027971949014</v>
+        <v>1.062156209415463</v>
       </c>
       <c r="L15">
-        <v>1.082731388941621</v>
+        <v>1.042347613475447</v>
       </c>
       <c r="M15">
-        <v>1.093435676194733</v>
+        <v>1.057080754936705</v>
       </c>
       <c r="N15">
-        <v>1.083560752487176</v>
+        <v>1.04442743241039</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.076709717765156</v>
+        <v>1.02001883085395</v>
       </c>
       <c r="D16">
-        <v>1.080298385237195</v>
+        <v>1.052192918835458</v>
       </c>
       <c r="E16">
-        <v>1.08016757304621</v>
+        <v>1.032948530730428</v>
       </c>
       <c r="F16">
-        <v>1.090900587520855</v>
+        <v>1.047845833242551</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.064113353853365</v>
+        <v>1.064080658598332</v>
       </c>
       <c r="J16">
-        <v>1.082758691994848</v>
+        <v>1.04738578319945</v>
       </c>
       <c r="K16">
-        <v>1.083585124954203</v>
+        <v>1.065645590257013</v>
       </c>
       <c r="L16">
-        <v>1.083454738028767</v>
+        <v>1.046712316766266</v>
       </c>
       <c r="M16">
-        <v>1.094153231001411</v>
+        <v>1.061367501176454</v>
       </c>
       <c r="N16">
-        <v>1.084296333531639</v>
+        <v>1.048873191148422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.077302175514243</v>
+        <v>1.023525776671357</v>
       </c>
       <c r="D17">
-        <v>1.080716926649085</v>
+        <v>1.054673855441914</v>
       </c>
       <c r="E17">
-        <v>1.08069053081716</v>
+        <v>1.035984421032846</v>
       </c>
       <c r="F17">
-        <v>1.091419260761987</v>
+        <v>1.050826730104699</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064324272588703</v>
+        <v>1.065579358136129</v>
       </c>
       <c r="J17">
-        <v>1.083218709455203</v>
+        <v>1.050108976486575</v>
       </c>
       <c r="K17">
-        <v>1.083933992856363</v>
+        <v>1.067786665886015</v>
       </c>
       <c r="L17">
-        <v>1.083907680868035</v>
+        <v>1.049389618732396</v>
       </c>
       <c r="M17">
-        <v>1.094602697250344</v>
+        <v>1.063998641467641</v>
       </c>
       <c r="N17">
-        <v>1.084757004269552</v>
+        <v>1.051600251682369</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.077647531154464</v>
+        <v>1.02554465606816</v>
       </c>
       <c r="D18">
-        <v>1.080960903906524</v>
+        <v>1.056103240666972</v>
       </c>
       <c r="E18">
-        <v>1.080995342492248</v>
+        <v>1.037732665526716</v>
       </c>
       <c r="F18">
-        <v>1.091721630995571</v>
+        <v>1.052543963724422</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.064447049339369</v>
+        <v>1.066440957846454</v>
       </c>
       <c r="J18">
-        <v>1.083486765963488</v>
+        <v>1.051676179453107</v>
       </c>
       <c r="K18">
-        <v>1.084137259932513</v>
+        <v>1.069019067363662</v>
       </c>
       <c r="L18">
-        <v>1.084171590624206</v>
+        <v>1.050930388601461</v>
       </c>
       <c r="M18">
-        <v>1.094864635875104</v>
+        <v>1.065513428298229</v>
       </c>
       <c r="N18">
-        <v>1.085025441448825</v>
+        <v>1.053169680256874</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.077765252327466</v>
+        <v>1.026228636985444</v>
       </c>
       <c r="D19">
-        <v>1.081044068408191</v>
+        <v>1.056587694700487</v>
       </c>
       <c r="E19">
-        <v>1.081099238189249</v>
+        <v>1.038325044887207</v>
       </c>
       <c r="F19">
-        <v>1.091824703977772</v>
+        <v>1.053125945195153</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.064488870981978</v>
+        <v>1.066732659293306</v>
       </c>
       <c r="J19">
-        <v>1.083578121764528</v>
+        <v>1.052207050556624</v>
       </c>
       <c r="K19">
-        <v>1.084206531301025</v>
+        <v>1.069436561066842</v>
       </c>
       <c r="L19">
-        <v>1.084261529055565</v>
+        <v>1.051452301206832</v>
       </c>
       <c r="M19">
-        <v>1.094953911797241</v>
+        <v>1.066026637178521</v>
       </c>
       <c r="N19">
-        <v>1.085116926985581</v>
+        <v>1.05370130525825</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.077238632705026</v>
+        <v>1.023152300785356</v>
       </c>
       <c r="D20">
-        <v>1.080672036758069</v>
+        <v>1.054409523212081</v>
       </c>
       <c r="E20">
-        <v>1.080634445286841</v>
+        <v>1.035661053210696</v>
       </c>
       <c r="F20">
-        <v>1.091363628951911</v>
+        <v>1.050509151159395</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.064301668741972</v>
+        <v>1.065419873627507</v>
       </c>
       <c r="J20">
-        <v>1.083169381283935</v>
+        <v>1.049819016925149</v>
       </c>
       <c r="K20">
-        <v>1.083896585595885</v>
+        <v>1.067558666585473</v>
       </c>
       <c r="L20">
-        <v>1.083859113830625</v>
+        <v>1.049104547732713</v>
       </c>
       <c r="M20">
-        <v>1.094554497347541</v>
+        <v>1.063718424747403</v>
       </c>
       <c r="N20">
-        <v>1.084707606046622</v>
+        <v>1.051309880345107</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.075523994005629</v>
+        <v>1.012828211133902</v>
       </c>
       <c r="D21">
-        <v>1.079460741352427</v>
+        <v>1.047114251898543</v>
       </c>
       <c r="E21">
-        <v>1.079120746548866</v>
+        <v>1.026727702893358</v>
       </c>
       <c r="F21">
-        <v>1.089862696867391</v>
+        <v>1.041742148990986</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.063690126541244</v>
+        <v>1.061000284447939</v>
       </c>
       <c r="J21">
-        <v>1.081837408391455</v>
+        <v>1.041799211728954</v>
       </c>
       <c r="K21">
-        <v>1.082886305767149</v>
+        <v>1.061254819402003</v>
       </c>
       <c r="L21">
-        <v>1.082547467039757</v>
+        <v>1.041219806720267</v>
       </c>
       <c r="M21">
-        <v>1.093253274510721</v>
+        <v>1.055973626351022</v>
       </c>
       <c r="N21">
-        <v>1.083373741599856</v>
+        <v>1.043278686105649</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.074443931550244</v>
+        <v>1.006067396070132</v>
       </c>
       <c r="D22">
-        <v>1.078697757924298</v>
+        <v>1.042349637394752</v>
       </c>
       <c r="E22">
-        <v>1.07816698153633</v>
+        <v>1.02088388121735</v>
       </c>
       <c r="F22">
-        <v>1.088917483879819</v>
+        <v>1.036013721971037</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.063303361752596</v>
+        <v>1.058095897227953</v>
       </c>
       <c r="J22">
-        <v>1.080997516386045</v>
+        <v>1.036543575703478</v>
       </c>
       <c r="K22">
-        <v>1.082249071936874</v>
+        <v>1.057126368662712</v>
       </c>
       <c r="L22">
-        <v>1.081720172573562</v>
+        <v>1.036052674472065</v>
       </c>
       <c r="M22">
-        <v>1.092433049976217</v>
+        <v>1.050903978594127</v>
       </c>
       <c r="N22">
-        <v>1.082532656851462</v>
+        <v>1.038015586474186</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.075016685915817</v>
+        <v>1.009678542083141</v>
       </c>
       <c r="D23">
-        <v>1.079102363697396</v>
+        <v>1.04489326301187</v>
       </c>
       <c r="E23">
-        <v>1.078672786644742</v>
+        <v>1.024004587773825</v>
       </c>
       <c r="F23">
-        <v>1.089418705343736</v>
+        <v>1.039072167780215</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.063508608871821</v>
+        <v>1.059648126811873</v>
       </c>
       <c r="J23">
-        <v>1.081442991606461</v>
+        <v>1.039351079460334</v>
       </c>
       <c r="K23">
-        <v>1.082587075789171</v>
+        <v>1.05933145646989</v>
       </c>
       <c r="L23">
-        <v>1.082158986873586</v>
+        <v>1.038812890597146</v>
       </c>
       <c r="M23">
-        <v>1.092868067214033</v>
+        <v>1.053611562855086</v>
       </c>
       <c r="N23">
-        <v>1.082978764697787</v>
+        <v>1.040827077208403</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.077267345629715</v>
+        <v>1.023321140549092</v>
       </c>
       <c r="D24">
-        <v>1.080692321034001</v>
+        <v>1.054529018084626</v>
       </c>
       <c r="E24">
-        <v>1.080659788606145</v>
+        <v>1.035807238610337</v>
       </c>
       <c r="F24">
-        <v>1.091388767076463</v>
+        <v>1.05065271753361</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.064311883215551</v>
+        <v>1.065491976515514</v>
       </c>
       <c r="J24">
-        <v>1.083191671376838</v>
+        <v>1.049950102417144</v>
       </c>
       <c r="K24">
-        <v>1.083913489011869</v>
+        <v>1.067661740320025</v>
       </c>
       <c r="L24">
-        <v>1.083881060062455</v>
+        <v>1.049233423266205</v>
       </c>
       <c r="M24">
-        <v>1.094576277511863</v>
+        <v>1.063845103939675</v>
       </c>
       <c r="N24">
-        <v>1.084729927794014</v>
+        <v>1.051441151993537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079870711787707</v>
+        <v>1.03811708469841</v>
       </c>
       <c r="D25">
-        <v>1.082531477198644</v>
+        <v>1.065022864351199</v>
       </c>
       <c r="E25">
-        <v>1.082956961481275</v>
+        <v>1.0486279465176</v>
       </c>
       <c r="F25">
-        <v>1.093668540412909</v>
+        <v>1.063257089734317</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065234299395527</v>
+        <v>1.071784904210079</v>
       </c>
       <c r="J25">
-        <v>1.085210590228878</v>
+        <v>1.061426393130579</v>
       </c>
       <c r="K25">
-        <v>1.085444039028834</v>
+        <v>1.076689182300374</v>
       </c>
       <c r="L25">
-        <v>1.085868309234677</v>
+        <v>1.060515522896918</v>
       </c>
       <c r="M25">
-        <v>1.096549661371605</v>
+        <v>1.074946826195299</v>
       </c>
       <c r="N25">
-        <v>1.086751713742398</v>
+        <v>1.062933740356133</v>
       </c>
     </row>
   </sheetData>
